--- a/1Семак/Информатика/ПР4/ПР4.xlsx
+++ b/1Семак/Информатика/ПР4/ПР4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrlol\OneDrive\Рабочий стол\Чикчикпуки\ВУЗ\Информатика\ПР4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrlol\Desktop\Чикчикпуки\ВУЗ\1Семак\Информатика\ПР4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F28105-433C-494D-857B-7C810D0B3320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCDD5CE-8631-40F8-98EE-F5E2605D0D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="№1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="_xlnm.Criteria" localSheetId="9">Лист16!$A$10:$C$12</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="10">Лист17!$A$12:$G$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="9.9999999999999994E-12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,11 +182,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="170" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -525,13 +525,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -555,31 +555,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -616,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -626,13 +626,13 @@
   </cellStyles>
   <dxfs count="90">
     <dxf>
-      <numFmt numFmtId="170" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
+        <right style="medium">
           <color indexed="64"/>
         </right>
         <top/>
@@ -642,13 +642,13 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
         <top/>
@@ -658,7 +658,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
+      <numFmt numFmtId="166" formatCode="0.0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -674,7 +674,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -690,347 +690,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="#,##0_ ;\-#,##0\ "/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="#,##0_ ;\-#,##0\ "/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="#,##0_ ;\-#,##0\ "/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="#,##0_ ;\-#,##0\ "/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="#,##0_ ;\-#,##0\ "/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1062,26 +722,26 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1099,6 +759,42 @@
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1113,7 +809,23 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1145,26 +857,26 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1198,7 +910,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1216,7 +928,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
+      <numFmt numFmtId="166" formatCode="0.0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1248,7 +960,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1280,26 +992,26 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1321,6 +1033,22 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1331,7 +1059,39 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1363,26 +1123,26 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1404,6 +1164,22 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1414,7 +1190,39 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1446,26 +1254,26 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1481,7 +1289,71 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1495,22 +1367,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1525,26 +1381,26 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1566,6 +1422,22 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1576,7 +1448,39 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1608,26 +1512,26 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1649,6 +1553,22 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1659,7 +1579,39 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1691,26 +1643,26 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1732,6 +1684,22 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1742,7 +1710,39 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1757,9 +1757,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1773,6 +1770,29 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1786,26 +1806,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -1871,105 +1871,105 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B336B32-E19D-460B-9A37-44CBD1264BB5}" name="Таблица2" displayName="Таблица2" ref="C11:H20" insertRowShift="1" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="88" tableBorderDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B336B32-E19D-460B-9A37-44CBD1264BB5}" name="Таблица2" displayName="Таблица2" ref="C11:H20" insertRowShift="1" totalsRowShown="0" headerRowDxfId="89" dataDxfId="87" headerRowBorderDxfId="88" tableBorderDxfId="86">
   <autoFilter ref="C11:H20" xr:uid="{3B336B32-E19D-460B-9A37-44CBD1264BB5}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A640E116-C479-4BA6-B1F6-97D1B854BE6C}" name="Планета" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{A640E116-C479-4BA6-B1F6-97D1B854BE6C}" name="Планета" dataDxfId="85"/>
     <tableColumn id="2" xr3:uid="{6DD2AEB7-76AF-4712-A6E0-182E2E8C41BF}" name="Период обращения" dataDxfId="84"/>
     <tableColumn id="3" xr3:uid="{C4CE179E-DEFA-4272-89E6-0578480135F2}" name="Расстояние от Солнца" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{BD0B504C-00FD-4917-989A-8A7192455C5A}" name="Диаметр" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{DF3834E0-19EE-437A-92EB-C9426EFAF659}" name="Масса" dataDxfId="6" dataCellStyle="Финансовый"/>
-    <tableColumn id="6" xr3:uid="{3A828B35-4C49-467D-9BAB-37C6BAFB957A}" name="Кол-во спутников" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{BD0B504C-00FD-4917-989A-8A7192455C5A}" name="Диаметр" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{DF3834E0-19EE-437A-92EB-C9426EFAF659}" name="Масса" dataDxfId="81" dataCellStyle="Финансовый"/>
+    <tableColumn id="6" xr3:uid="{3A828B35-4C49-467D-9BAB-37C6BAFB957A}" name="Кол-во спутников" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3E6E2E59-7699-4CDF-AA79-3F69B7A8BB88}" name="Таблица28" displayName="Таблица28" ref="C11:H20" insertRowShift="1" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81" headerRowBorderDxfId="79" tableBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3E6E2E59-7699-4CDF-AA79-3F69B7A8BB88}" name="Таблица28" displayName="Таблица28" ref="C11:H20" insertRowShift="1" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76">
   <autoFilter ref="C11:H20" xr:uid="{3E6E2E59-7699-4CDF-AA79-3F69B7A8BB88}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C12:H20">
     <sortCondition descending="1" ref="H12:H20"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9399C814-A01E-492C-B56B-52CC40C29026}" name="Планета" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{7ACEF2C9-1FFD-4916-A848-84824AE76AF4}" name="Период обращения" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{D24E77BF-229E-4FC4-A36B-53C342326A74}" name="Расстояние от Солнца" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{6BDECD09-746D-4509-96C2-894C3B1FB57E}" name="Диаметр" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{CA850155-152B-41F0-ABA5-5001BE5821D2}" name="Масса" dataDxfId="9" dataCellStyle="Финансовый"/>
-    <tableColumn id="6" xr3:uid="{478845AE-73F4-4E1C-84EC-27528C0D6E79}" name="Кол-во спутников" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{9399C814-A01E-492C-B56B-52CC40C29026}" name="Планета" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{7ACEF2C9-1FFD-4916-A848-84824AE76AF4}" name="Период обращения" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{D24E77BF-229E-4FC4-A36B-53C342326A74}" name="Расстояние от Солнца" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{6BDECD09-746D-4509-96C2-894C3B1FB57E}" name="Диаметр" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{CA850155-152B-41F0-ABA5-5001BE5821D2}" name="Масса" dataDxfId="71" dataCellStyle="Финансовый"/>
+    <tableColumn id="6" xr3:uid="{478845AE-73F4-4E1C-84EC-27528C0D6E79}" name="Кол-во спутников" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8DF6D472-05B2-4C27-BE62-C1782FE9EAF7}" name="Таблица29" displayName="Таблица29" ref="C11:H20" insertRowShift="1" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" headerRowBorderDxfId="72" tableBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8DF6D472-05B2-4C27-BE62-C1782FE9EAF7}" name="Таблица29" displayName="Таблица29" ref="C11:H20" insertRowShift="1" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
   <autoFilter ref="C11:H20" xr:uid="{8DF6D472-05B2-4C27-BE62-C1782FE9EAF7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C12:H20">
     <sortCondition ref="C12:C20"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DC10B886-E9E5-48D1-850B-7D487FD87BEA}" name="Планета" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{7D75983C-33B9-4A2A-9333-3F37B12640AD}" name="Период обращения" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{422CF080-4BCC-40BD-A9C6-6E89CA6B754D}" name="Расстояние от Солнца" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{D55D64C5-D332-479D-8D6B-1CF5504D3148}" name="Диаметр" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{0750CBE2-A73F-4B34-A000-098E233FDC16}" name="Масса" dataDxfId="12" dataCellStyle="Финансовый"/>
-    <tableColumn id="6" xr3:uid="{5CB1AAF9-9D4B-4F36-BC25-D9C10F0E53F7}" name="Кол-во спутников" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{DC10B886-E9E5-48D1-850B-7D487FD87BEA}" name="Планета" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{7D75983C-33B9-4A2A-9333-3F37B12640AD}" name="Период обращения" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{422CF080-4BCC-40BD-A9C6-6E89CA6B754D}" name="Расстояние от Солнца" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{D55D64C5-D332-479D-8D6B-1CF5504D3148}" name="Диаметр" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{0750CBE2-A73F-4B34-A000-098E233FDC16}" name="Масса" dataDxfId="61" dataCellStyle="Финансовый"/>
+    <tableColumn id="6" xr3:uid="{5CB1AAF9-9D4B-4F36-BC25-D9C10F0E53F7}" name="Кол-во спутников" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A8EC3D0A-59E9-4E2C-A483-FDDFF1F2561E}" name="Таблица210" displayName="Таблица210" ref="C11:H20" insertRowShift="1" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" headerRowBorderDxfId="65" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A8EC3D0A-59E9-4E2C-A483-FDDFF1F2561E}" name="Таблица210" displayName="Таблица210" ref="C11:H20" insertRowShift="1" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
   <autoFilter ref="C11:H20" xr:uid="{A8EC3D0A-59E9-4E2C-A483-FDDFF1F2561E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C12:H20">
     <sortCondition ref="G12:G20"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0B5B6537-9190-48A7-B794-59D3806687DB}" name="Планета" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{336D74A6-E075-4490-B3FF-DFE60247A4A7}" name="Период обращения" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{63F037B5-D5D8-4147-A053-E4A1BA0EA3DB}" name="Расстояние от Солнца" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{8D6847D5-FF09-45C7-8BE7-2CC17C75AFF2}" name="Диаметр" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{F7B12A92-65CE-4474-9373-4A03910EAC3A}" name="Масса" dataDxfId="15" dataCellStyle="Финансовый"/>
-    <tableColumn id="6" xr3:uid="{06BB37E5-ABBF-4C6A-8127-679389DC0BE2}" name="Кол-во спутников" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{0B5B6537-9190-48A7-B794-59D3806687DB}" name="Планета" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{336D74A6-E075-4490-B3FF-DFE60247A4A7}" name="Период обращения" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{63F037B5-D5D8-4147-A053-E4A1BA0EA3DB}" name="Расстояние от Солнца" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{8D6847D5-FF09-45C7-8BE7-2CC17C75AFF2}" name="Диаметр" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{F7B12A92-65CE-4474-9373-4A03910EAC3A}" name="Масса" dataDxfId="51" dataCellStyle="Финансовый"/>
+    <tableColumn id="6" xr3:uid="{06BB37E5-ABBF-4C6A-8127-679389DC0BE2}" name="Кол-во спутников" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6EAA3148-5E2C-439B-B642-CC3FA6D828FA}" name="Таблица211" displayName="Таблица211" ref="C11:H20" insertRowShift="1" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" headerRowBorderDxfId="58" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6EAA3148-5E2C-439B-B642-CC3FA6D828FA}" name="Таблица211" displayName="Таблица211" ref="C11:H20" insertRowShift="1" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{04FC7A45-A242-4DE5-BB2D-7104A9A60704}" name="Планета" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{8F4FEEE4-B10D-4F8B-B577-3E510F83467E}" name="Период обращения" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{2E79EF2E-6F00-4133-8B23-B19DF00BC794}" name="Расстояние от Солнца" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{041579C9-4ACE-44CE-B1FC-CC873A8E0813}" name="Диаметр" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{087D9202-78C0-4BA9-A16E-0CAE7D54E7E8}" name="Масса" dataDxfId="18" dataCellStyle="Финансовый"/>
-    <tableColumn id="6" xr3:uid="{309BC8B1-E68B-4C18-9229-8B4F607C41FC}" name="Кол-во спутников" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{04FC7A45-A242-4DE5-BB2D-7104A9A60704}" name="Планета" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{8F4FEEE4-B10D-4F8B-B577-3E510F83467E}" name="Период обращения" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{2E79EF2E-6F00-4133-8B23-B19DF00BC794}" name="Расстояние от Солнца" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{041579C9-4ACE-44CE-B1FC-CC873A8E0813}" name="Диаметр" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{087D9202-78C0-4BA9-A16E-0CAE7D54E7E8}" name="Масса" dataDxfId="41" dataCellStyle="Финансовый"/>
+    <tableColumn id="6" xr3:uid="{309BC8B1-E68B-4C18-9229-8B4F607C41FC}" name="Кол-во спутников" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{2706CCAF-1A43-4639-9BB3-8AE26133D426}" name="Таблица215" displayName="Таблица215" ref="C11:H20" insertRowShift="1" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" headerRowBorderDxfId="51" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{2706CCAF-1A43-4639-9BB3-8AE26133D426}" name="Таблица215" displayName="Таблица215" ref="C11:H20" insertRowShift="1" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
   <autoFilter ref="C11:H20" xr:uid="{2706CCAF-1A43-4639-9BB3-8AE26133D426}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{13BF0984-CD7D-4AEC-94B5-FA63E777770B}" name="Планета" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{1774F7D7-997D-46FF-BF88-11820D307718}" name="Период обращения" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{715CD953-8DC9-4E3A-A9BE-7EBE35BDD1A9}" name="Расстояние от Солнца" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{9B23D77F-0F60-41A0-9899-3AB478503DE3}" name="Диаметр" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{BE82AC38-19FB-4777-AA24-61290DF51F69}" name="Масса" dataDxfId="3" dataCellStyle="Финансовый"/>
-    <tableColumn id="6" xr3:uid="{873CAC9D-1009-42C3-B4F1-BFADFDB7AD61}" name="Кол-во спутников" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{13BF0984-CD7D-4AEC-94B5-FA63E777770B}" name="Планета" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{1774F7D7-997D-46FF-BF88-11820D307718}" name="Период обращения" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{715CD953-8DC9-4E3A-A9BE-7EBE35BDD1A9}" name="Расстояние от Солнца" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{9B23D77F-0F60-41A0-9899-3AB478503DE3}" name="Диаметр" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{BE82AC38-19FB-4777-AA24-61290DF51F69}" name="Масса" dataDxfId="31" dataCellStyle="Финансовый"/>
+    <tableColumn id="6" xr3:uid="{873CAC9D-1009-42C3-B4F1-BFADFDB7AD61}" name="Кол-во спутников" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D5B8A90C-B1C1-4662-9667-60D89989C570}" name="Таблица216" displayName="Таблица216" ref="C11:H20" insertRowShift="1" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" headerRowBorderDxfId="44" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D5B8A90C-B1C1-4662-9667-60D89989C570}" name="Таблица216" displayName="Таблица216" ref="C11:H20" insertRowShift="1" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
   <autoFilter ref="C11:H20" xr:uid="{D5B8A90C-B1C1-4662-9667-60D89989C570}">
     <filterColumn colId="1">
       <customFilters>
@@ -1983,38 +1983,38 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AA9DC006-CA0F-4DA0-8395-4F145274BC90}" name="Планета" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{818E9DE8-402C-4497-A8BF-20B9B69A8805}" name="Период обращения" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{AA59F15E-32D5-48A3-948C-4C67163CE3A6}" name="Расстояние от Солнца" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{850EE0F6-4EA4-4C09-A835-4370D155AE0C}" name="Диаметр" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{665625C0-FD01-4099-A62D-4AFDBB74772E}" name="Масса" dataDxfId="39" dataCellStyle="Финансовый"/>
-    <tableColumn id="6" xr3:uid="{FFE0EE83-D6C8-4E95-986B-9861B3C4CCF4}" name="Кол-во спутников" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{AA9DC006-CA0F-4DA0-8395-4F145274BC90}" name="Планета" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{818E9DE8-402C-4497-A8BF-20B9B69A8805}" name="Период обращения" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{AA59F15E-32D5-48A3-948C-4C67163CE3A6}" name="Расстояние от Солнца" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{850EE0F6-4EA4-4C09-A835-4370D155AE0C}" name="Диаметр" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{665625C0-FD01-4099-A62D-4AFDBB74772E}" name="Масса" dataDxfId="21" dataCellStyle="Финансовый"/>
+    <tableColumn id="6" xr3:uid="{FFE0EE83-D6C8-4E95-986B-9861B3C4CCF4}" name="Кол-во спутников" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{4F20AF44-D862-48E9-AB38-02DD5C9785B8}" name="Таблица218" displayName="Таблица218" ref="C11:H20" insertRowShift="1" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" headerRowBorderDxfId="27" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{4F20AF44-D862-48E9-AB38-02DD5C9785B8}" name="Таблица218" displayName="Таблица218" ref="C11:H20" insertRowShift="1" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
   <autoFilter ref="C11:H20" xr:uid="{4F20AF44-D862-48E9-AB38-02DD5C9785B8}">
     <filterColumn colId="3">
       <top10 val="3" filterVal="49"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4FFA00C1-874F-491B-8502-4D02763A0919}" name="Планета" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{77C194CE-B610-4FDF-B9B9-EE42A4E96DCD}" name="Период обращения" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{FD9B6AE7-66BB-47AB-B69C-A50B1CFDCAEF}" name="Расстояние от Солнца" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{F9B0AF76-C47D-4F45-957F-05D5A952E545}" name="Диаметр" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{DAA8B682-BF51-41F9-962C-5A6279441AFB}" name="Масса" dataDxfId="22" dataCellStyle="Финансовый"/>
-    <tableColumn id="6" xr3:uid="{F80FE075-BBD8-4864-A0BD-351B13748279}" name="Кол-во спутников" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{4FFA00C1-874F-491B-8502-4D02763A0919}" name="Планета" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{77C194CE-B610-4FDF-B9B9-EE42A4E96DCD}" name="Период обращения" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{FD9B6AE7-66BB-47AB-B69C-A50B1CFDCAEF}" name="Расстояние от Солнца" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{F9B0AF76-C47D-4F45-957F-05D5A952E545}" name="Диаметр" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{DAA8B682-BF51-41F9-962C-5A6279441AFB}" name="Масса" dataDxfId="11" dataCellStyle="Финансовый"/>
+    <tableColumn id="6" xr3:uid="{F80FE075-BBD8-4864-A0BD-351B13748279}" name="Кол-во спутников" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{799D84B6-8176-45B5-96F7-8F32337A991D}" name="Таблица217" displayName="Таблица217" ref="C11:H20" insertRowShift="1" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" headerRowBorderDxfId="34" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{799D84B6-8176-45B5-96F7-8F32337A991D}" name="Таблица217" displayName="Таблица217" ref="C11:H20" insertRowShift="1" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="C11:H20" xr:uid="{799D84B6-8176-45B5-96F7-8F32337A991D}">
     <filterColumn colId="2">
       <customFilters>
@@ -2034,12 +2034,12 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F05F004B-D946-4A86-B6DA-0C5353ED765F}" name="Планета" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{A15AF263-9C79-4E15-88F4-52D3EBAAC25E}" name="Период обращения" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{C4F71EEF-7976-4749-81CA-CEE7D862DFBD}" name="Расстояние от Солнца" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{F05F004B-D946-4A86-B6DA-0C5353ED765F}" name="Планета" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A15AF263-9C79-4E15-88F4-52D3EBAAC25E}" name="Период обращения" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C4F71EEF-7976-4749-81CA-CEE7D862DFBD}" name="Расстояние от Солнца" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{DD33E6CF-F3EE-44F9-9BAC-5EFEF88B53E6}" name="Диаметр" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{19463FA3-95D3-4167-8FC9-9BF7909CB950}" name="Масса" dataDxfId="0" dataCellStyle="Финансовый"/>
-    <tableColumn id="6" xr3:uid="{5C591327-C081-43FC-AD48-6E5638C4C6EF}" name="Кол-во спутников" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{19463FA3-95D3-4167-8FC9-9BF7909CB950}" name="Масса" dataDxfId="1" dataCellStyle="Финансовый"/>
+    <tableColumn id="6" xr3:uid="{5C591327-C081-43FC-AD48-6E5638C4C6EF}" name="Кол-во спутников" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2551,7 +2551,7 @@
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>18</v>
       </c>
@@ -2696,12 +2696,13 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
